--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:33:50+00:00</t>
+    <t>2025-01-06T08:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:12:15+00:00</t>
+    <t>2025-01-06T08:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:51:53+00:00</t>
+    <t>2025-01-06T11:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:12:04+00:00</t>
+    <t>2025-01-06T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:34:04+00:00</t>
+    <t>2025-01-06T11:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:54:23+00:00</t>
+    <t>2025-01-06T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T12:46:13+00:00</t>
+    <t>2025-01-06T13:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:14:19+00:00</t>
+    <t>2025-01-06T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:23:20+00:00</t>
+    <t>2025-01-06T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:44:48+00:00</t>
+    <t>2025-01-06T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Value set for DHIS2 'Treatment category' option set.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -341,26 +344,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -382,12 +387,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -400,10 +405,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:48:57+00:00</t>
+    <t>2025-01-06</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TBCSTreatmentCategoryVS.xlsx
+++ b/ValueSet-TBCSTreatmentCategoryVS.xlsx
@@ -54,7 +54,7 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
